--- a/RawData/EnhancedXylooligosaccharidesYieldsAndEnymaticHydrolyzabilityOfCellulose.xlsx
+++ b/RawData/EnhancedXylooligosaccharidesYieldsAndEnymaticHydrolyzabilityOfCellulose.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B8DD5-4D6D-4AA9-AA69-B1AC0A5ADA8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB63BA5-6B75-44E9-B994-B9695931B8E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acetic acid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,29 +1857,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFDDB0-64D9-428A-B667-8EAE0E841A52}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="21.44140625" customWidth="1"/>
+    <col min="25" max="25" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1882,73 +1890,76 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>30</v>
       </c>
@@ -1958,34 +1969,37 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
         <v>0.83333333333333326</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.84099999999999997</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>28.296941638608306</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.7030583613916948</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>85.140946010511229</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>19.96590909090909</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>11.739090909090908</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>4.58</v>
       </c>
     </row>
